--- a/data/f10.xlsx
+++ b/data/f10.xlsx
@@ -986,18 +986,11 @@
     <t>lǐ</t>
   </si>
   <si>
-    <t>Quà</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>结婚需要很多</t>
+    <t>Lễ</t>
+  </si>
+  <si>
+    <r>
+      <t>这个城市有很多传统</t>
     </r>
     <r>
       <rPr>
@@ -1018,7 +1011,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">物。(Jiéhūn xūyào hěn duō </t>
+      <t xml:space="preserve">节。(Zhège chéngshì yǒu hěn duō chuántǒng </t>
     </r>
     <r>
       <rPr>
@@ -1039,18 +1032,452 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">wù.) – Đám cưới cần rất nhiều </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>quà</t>
+      <t xml:space="preserve">jié.) – Thành phố này có nhiều </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lễ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hội truyền thống.</t>
+    </r>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>shǔ</t>
+  </si>
+  <si>
+    <t>Đếm</t>
+  </si>
+  <si>
+    <r>
+      <t>请你</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">一数这些苹果。(Qǐng nǐ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yī </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shǔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zhèxiē píngguǒ.) – Hãy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đếm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> số táo này.</t>
+    </r>
+  </si>
+  <si>
+    <t>份</t>
+  </si>
+  <si>
+    <t>fèn</t>
+  </si>
+  <si>
+    <t>Phần, suất</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我点了一</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">饭。(Wǒ diǎnle yī </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fèn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fàn.) – Tôi đã gọi một </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>suất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cơm.</t>
+    </r>
+  </si>
+  <si>
+    <t>疯</t>
+  </si>
+  <si>
+    <t>fēng</t>
+  </si>
+  <si>
+    <t>Phát điên</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他好像</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">了。(Tā hǎoxiàng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fēng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le.) – Anh ấy dường như </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phát điên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rồi.</t>
+    </r>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>píng</t>
+  </si>
+  <si>
+    <t>Ngang bằng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两队实力</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">衡。(Liǎng duì shílì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>píng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">héng.) – Thực lực hai đội </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngang bằng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nhau.</t>
+    </r>
+  </si>
+  <si>
+    <t>止</t>
+  </si>
+  <si>
+    <t>zhǐ</t>
+  </si>
+  <si>
+    <t>Dừng lại</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">步。(Qǐng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bù.) – Vui lòng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dừng lại</t>
     </r>
     <r>
       <rPr>
@@ -1064,370 +1491,405 @@
     </r>
   </si>
   <si>
-    <t>数</t>
-  </si>
-  <si>
-    <t>shù</t>
-  </si>
-  <si>
-    <t>Đếm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>请你</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">一数这些苹果。(Qǐng nǐ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shǔ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> yī </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shǔ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> zhèxiē píngguǒ.) – Hãy </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>đếm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> số táo này.</t>
-    </r>
-  </si>
-  <si>
-    <t>份</t>
-  </si>
-  <si>
-    <t>fèn</t>
-  </si>
-  <si>
-    <t>Phần, suất</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我点了一</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>份</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">饭。(Wǒ diǎnle yī </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fèn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fàn.) – Tôi đã gọi một </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>suất</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cơm.</t>
-    </r>
-  </si>
-  <si>
-    <t>疯</t>
-  </si>
-  <si>
-    <t>fēng</t>
-  </si>
-  <si>
-    <t>Phát điên</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他好像</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>疯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">了。(Tā hǎoxiàng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fēng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le.) – Anh ấy dường như </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>phát điên</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> rồi.</t>
-    </r>
-  </si>
-  <si>
-    <t>平</t>
-  </si>
-  <si>
-    <t>píng</t>
-  </si>
-  <si>
-    <t>Ngang bằng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>两队实力</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">衡。(Liǎng duì shílì </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>píng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">héng.) – Thực lực hai đội </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ngang bằng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> nhau.</t>
-    </r>
-  </si>
-  <si>
-    <t>止</t>
-  </si>
-  <si>
-    <t>zhǐ</t>
-  </si>
-  <si>
-    <t>Dừng lại</t>
+    <t>十</t>
+  </si>
+  <si>
+    <t>shí</t>
+  </si>
+  <si>
+    <t>Mười</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>十</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">本书。(Tā yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> běn shū.) – Anh ấy có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mười</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quyển sách.</t>
+    </r>
+  </si>
+  <si>
+    <t>拜</t>
+  </si>
+  <si>
+    <t>bài</t>
+  </si>
+  <si>
+    <t>Bái lạy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他向师父</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">了三拜。(Tā xiàng shīfu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bài</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> le sān bài.) – Anh ấy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bái lạy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sư phụ ba lần.</t>
+    </r>
+  </si>
+  <si>
+    <t>鬼</t>
+  </si>
+  <si>
+    <t>guǐ</t>
+  </si>
+  <si>
+    <t>Quỷ</t>
+  </si>
+  <si>
+    <r>
+      <t>你怕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鬼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">吗？(Nǐ pà </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guǐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ma?) – Bạn có sợ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không?</t>
+    </r>
+  </si>
+  <si>
+    <t>睡</t>
+  </si>
+  <si>
+    <t>shuì</t>
+  </si>
+  <si>
+    <t>Ngủ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我每天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>睡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">八个小时。(Wǒ měitiān </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shuì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bā gè xiǎoshí.) – Tôi ngủ tám tiếng mỗi ngày.</t>
+    </r>
+  </si>
+  <si>
+    <t>啦</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>Trợ từ cảm thán</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他走</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>啦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">！(Tā zǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!) – Anh ấy đi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rồi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>调</t>
+  </si>
+  <si>
+    <t>diào</t>
+  </si>
+  <si>
+    <t>Điều chỉnh</t>
   </si>
   <si>
     <r>
@@ -1449,49 +1911,280 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">步。(Qǐng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zhǐ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">bù.) – Vui lòng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dừng lại</t>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">低音量。(Qǐng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tiáo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dī yīnliàng.) – Vui lòng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>điều chỉnh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> âm lượng thấp xuống.</t>
+    </r>
+  </si>
+  <si>
+    <t>巴</t>
+  </si>
+  <si>
+    <t>bā</t>
+  </si>
+  <si>
+    <t>Bám</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>孩子</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>巴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">着妈妈不放。(Háizi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zhe māmā bù fàng.) – Đứa trẻ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bám</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lấy mẹ không buông.</t>
+    </r>
+  </si>
+  <si>
+    <t>兄</t>
+  </si>
+  <si>
+    <t>xiōng</t>
+  </si>
+  <si>
+    <t>Anh trai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他是我的大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。(Tā shì wǒ de dà </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xiōng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.) – Anh ấy là anh trai lớn của tôi.</t>
+    </r>
+  </si>
+  <si>
+    <t>紧</t>
+  </si>
+  <si>
+    <t>jǐn</t>
+  </si>
+  <si>
+    <t>Gấp rút</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间很</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。(Shíjiān hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jǐn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.) – Thời gian rất </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gấp rút</t>
     </r>
     <r>
       <rPr>
@@ -1505,412 +2198,1441 @@
     </r>
   </si>
   <si>
-    <t>十</t>
-  </si>
-  <si>
-    <t>shí</t>
-  </si>
-  <si>
-    <t>Mười</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>十</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">本书。(Tā yǒu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shí</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> běn shū.) – Anh ấy có </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mười</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> quyển sách.</t>
-    </r>
-  </si>
-  <si>
-    <t>拜</t>
-  </si>
-  <si>
-    <t>bài</t>
-  </si>
-  <si>
-    <t>Bái lạy</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他向师父</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>拜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">了三拜。(Tā xiàng shīfu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bài</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> le sān bài.) – Anh ấy </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bái lạy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sư phụ ba lần.</t>
-    </r>
-  </si>
-  <si>
-    <t>鬼</t>
-  </si>
-  <si>
-    <t>guǐ</t>
-  </si>
-  <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>你怕</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鬼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">吗？(Nǐ pà </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>guǐ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ma?) – Bạn có sợ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ma </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>không?</t>
-    </r>
-  </si>
-  <si>
-    <t>睡</t>
-  </si>
-  <si>
-    <t>shuì</t>
-  </si>
-  <si>
-    <t>Ngủ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我每天</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>睡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">八个小时。(Wǒ měitiān </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shuì</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bā gè xiǎoshí.) – Tôi ngủ tám tiếng mỗi ngày.</t>
-    </r>
-  </si>
-  <si>
-    <t>啦</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>Trợ từ cảm thán</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他走</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>啦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">！(Tā zǒu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">!) – Anh ấy đi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rồi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!</t>
-    </r>
-  </si>
-  <si>
-    <t>调</t>
-  </si>
-  <si>
-    <t>diào</t>
-  </si>
-  <si>
-    <t>Điều chỉnh</t>
+    <t>站</t>
+  </si>
+  <si>
+    <t>zhàn</t>
+  </si>
+  <si>
+    <t>Đứng, trạm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请在这儿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">一下。(Qǐng zài zhèr </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yīxià.) – Vui lòng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đứng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ở đây một chút.</t>
+    </r>
+  </si>
+  <si>
+    <t>品</t>
+  </si>
+  <si>
+    <t>pǐn</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这家商店卖很多品牌产</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。(Zhè jiā shāngdiàn mài hěn duō pǐnpái chǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pǐn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.) – Cửa hàng này bán rất nhiều </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thương hiệu.</t>
+    </r>
+  </si>
+  <si>
+    <t>英</t>
+  </si>
+  <si>
+    <t>yīng</t>
+  </si>
+  <si>
+    <t>Anh hùng, nước Anh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他是个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">雄。(Tā shì gè </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yīng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">xióng.) – Anh ấy là một </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anh hùng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>罪</t>
+  </si>
+  <si>
+    <t>zuì</t>
+  </si>
+  <si>
+    <t>Tội lỗi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他犯了大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>罪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。(Tā fànle dà </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zuì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.) – Anh ta phạm một </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tội lớn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>wén</t>
+  </si>
+  <si>
+    <t>Văn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我喜欢学中文</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化。(Wǒ xǐhuān xué Zhōng</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wén</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wénhuà.) – Tôi thích học </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>văn hóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trung Quốc.</t>
+    </r>
+  </si>
+  <si>
+    <t>亮</t>
+  </si>
+  <si>
+    <t>liàng</t>
+  </si>
+  <si>
+    <t>Sáng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>房间里很</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。(Fángjiān lǐ hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.) – Trong phòng rất </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sáng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>抓</t>
+  </si>
+  <si>
+    <t>zhuā</t>
+  </si>
+  <si>
+    <t>Nắm bắt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">住了机会。(Tā </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhuā</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zhù le jīhuì.) – Anh ấy đã </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nắm bắt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cơ hội.</t>
+    </r>
+  </si>
+  <si>
+    <t>跳</t>
+  </si>
+  <si>
+    <t>tiào</t>
+  </si>
+  <si>
+    <t>Nhảy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>她喜欢</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">舞。(Tā xǐhuān </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tiào</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">wǔ.) – Cô ấy thích </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nhảy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> múa.</t>
+    </r>
+  </si>
+  <si>
+    <t>联</t>
+  </si>
+  <si>
+    <t>lián</t>
+  </si>
+  <si>
+    <t>Liên lạc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请跟我</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">系。(Qǐng gēn wǒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lián</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">xì.) – Vui lòng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>liên lạc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> với tôi.</t>
+    </r>
+  </si>
+  <si>
+    <t>混</t>
+  </si>
+  <si>
+    <t>hùn</t>
+  </si>
+  <si>
+    <t>Trộn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请把糖和奶油</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>混</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">在一起。(Qǐng bǎ táng hé nǎiyóu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hùn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> zài yīqǐ.) – Vui lòng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trộn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đường và kem lại với nhau.</t>
+    </r>
+  </si>
+  <si>
+    <t>便</t>
+  </si>
+  <si>
+    <t>biàn</t>
+  </si>
+  <si>
+    <t>Tiện</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网上购物很</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>便</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">利。(Wǎngshàng gòuwù hěn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>biàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lì.) – Mua sắm online rất </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tiện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lợi.</t>
+    </r>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>gǒu</t>
+  </si>
+  <si>
+    <t>Chó</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我家有一只</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。(Wǒ jiā yǒu yī zhī </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gǒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.) – Nhà tôi có một con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>脑</t>
+  </si>
+  <si>
+    <t>nǎo</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长时间工作会让</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">子疲劳。(Cháng shíjiān gōngzuò huì ràng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nǎo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">zi píláo.) – Làm việc trong thời gian dài sẽ khiến </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mệt mỏi.</t>
+    </r>
+  </si>
+  <si>
+    <t>业</t>
+  </si>
+  <si>
+    <t>yè</t>
+  </si>
+  <si>
+    <t>Nghề nghiệp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教师是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。(Jiàoshī shì yī zhǒng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.) – Giáo viên là một </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nghề nghiệp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>gē</t>
+  </si>
+  <si>
+    <t>Bài hát</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这首</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>歌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">很好听。(Zhè shǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gē</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hěn hǎotīng.) – Bài </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hát</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> này rất hay.</t>
+    </r>
+  </si>
+  <si>
+    <t>精</t>
+  </si>
+  <si>
+    <t>jīng</t>
+  </si>
+  <si>
+    <t>Tinh thần</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他很有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">神。(Tā hěn yǒu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jīng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">shén.) – Anh ấy tràn đầy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tinh thần</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>bāo</t>
+  </si>
+  <si>
+    <t>Túi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">很重。(Wǒ de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bāo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hěn zhòng.) – Cái </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>túi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> của tôi rất nặng.</t>
+    </r>
+  </si>
+  <si>
+    <t>转</t>
+  </si>
+  <si>
+    <t>zhuǎn</t>
+  </si>
+  <si>
+    <t>Chuyển</t>
   </si>
   <si>
     <r>
@@ -1932,280 +3654,301 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>调</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">低音量。(Qǐng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tiáo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dī yīnliàng.) – Vui lòng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>điều chỉnh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> âm lượng thấp xuống.</t>
-    </r>
-  </si>
-  <si>
-    <t>巴</t>
-  </si>
-  <si>
-    <t>bā</t>
-  </si>
-  <si>
-    <t>Bám</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>孩子</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>巴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">着妈妈不放。(Háizi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">zhe māmā bù fàng.) – Đứa trẻ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bám</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lấy mẹ không buông.</t>
-    </r>
-  </si>
-  <si>
-    <t>兄</t>
-  </si>
-  <si>
-    <t>xiōng</t>
-  </si>
-  <si>
-    <t>Anh trai</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他是我的大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>兄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">。(Tā shì wǒ de dà </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xiōng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.) – Anh ấy là anh trai lớn của tôi.</t>
-    </r>
-  </si>
-  <si>
-    <t>紧</t>
-  </si>
-  <si>
-    <t>jǐn</t>
-  </si>
-  <si>
-    <t>Gấp rút</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时间很</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>紧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">。(Shíjiān hěn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jǐn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.) – Thời gian rất </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gấp rút</t>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">到下一页。(Qǐng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zhuǎn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dào xià yī yè.) – Vui lòng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chuyển</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sang trang tiếp theo.</t>
+    </r>
+  </si>
+  <si>
+    <t>却</t>
+  </si>
+  <si>
+    <t>què</t>
+  </si>
+  <si>
+    <t>Nhưng mà</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他想去，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>却</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">没时间。(Tā xiǎng qù, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>què</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> méi shíjiān.) – Anh ấy muốn đi, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nhưng mà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không có thời gian.</t>
+    </r>
+  </si>
+  <si>
+    <t>参</t>
+  </si>
+  <si>
+    <t>cān</t>
+  </si>
+  <si>
+    <t>Tham gia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">加比赛吗？(Nǐ yào </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cān</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">jiā bǐsài ma?) – Bạn có muốn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tham gia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cuộc thi không?</t>
+    </r>
+  </si>
+  <si>
+    <t>院</t>
+  </si>
+  <si>
+    <t>yuàn</t>
+  </si>
+  <si>
+    <t>Viện</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我在医</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工作。(Wǒ zài yī</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yuàn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gōngzuò.) – Tôi làm việc trong bệnh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> viện</t>
     </r>
     <r>
       <rPr>
@@ -2219,1721 +3962,6 @@
     </r>
   </si>
   <si>
-    <t>站</t>
-  </si>
-  <si>
-    <t>zhàn</t>
-  </si>
-  <si>
-    <t>Đứng, trạm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>请在这儿</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>站</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">一下。(Qǐng zài zhèr </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zhàn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> yīxià.) – Vui lòng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>đứng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ở đây một chút.</t>
-    </r>
-  </si>
-  <si>
-    <t>品</t>
-  </si>
-  <si>
-    <t>pǐn</t>
-  </si>
-  <si>
-    <t>Sản phẩm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这家商店卖很多品牌产</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。(Zhè jiā shāngdiàn mài hěn duō pǐnpái chǎn</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pǐn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.) – Cửa hàng này bán rất nhiều </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sản phẩm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> thương hiệu.</t>
-    </r>
-  </si>
-  <si>
-    <t>英</t>
-  </si>
-  <si>
-    <t>yīng</t>
-  </si>
-  <si>
-    <t>Anh hùng, nước Anh</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他是个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>英</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">雄。(Tā shì gè </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yīng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">xióng.) – Anh ấy là một </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>anh hùng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>罪</t>
-  </si>
-  <si>
-    <t>zuì</t>
-  </si>
-  <si>
-    <t>Tội lỗi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他犯了大</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>罪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">。(Tā fànle dà </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zuì</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.) – Anh ta phạm một </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tội lớn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>文</t>
-  </si>
-  <si>
-    <t>wén</t>
-  </si>
-  <si>
-    <t>Văn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我喜欢学中文</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>化。(Wǒ xǐhuān xué Zhōng</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wén</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wénhuà.) – Tôi thích học </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>văn hóa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Trung Quốc.</t>
-    </r>
-  </si>
-  <si>
-    <t>亮</t>
-  </si>
-  <si>
-    <t>liàng</t>
-  </si>
-  <si>
-    <t>Sáng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>房间里很</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">。(Fángjiān lǐ hěn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>liàng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.) – Trong phòng rất </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sáng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>抓</t>
-  </si>
-  <si>
-    <t>zhuā</t>
-  </si>
-  <si>
-    <t>Nắm bắt</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>抓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">住了机会。(Tā </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zhuā</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">zhù le jīhuì.) – Anh ấy đã </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nắm bắt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cơ hội.</t>
-    </r>
-  </si>
-  <si>
-    <t>跳</t>
-  </si>
-  <si>
-    <t>tiào</t>
-  </si>
-  <si>
-    <t>Nhảy</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>她喜欢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>跳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">舞。(Tā xǐhuān </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tiào</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">wǔ.) – Cô ấy thích </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nhảy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> múa.</t>
-    </r>
-  </si>
-  <si>
-    <t>联</t>
-  </si>
-  <si>
-    <t>lián</t>
-  </si>
-  <si>
-    <t>Liên lạc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>请跟我</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>联</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">系。(Qǐng gēn wǒ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lián</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">xì.) – Vui lòng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>liên lạc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> với tôi.</t>
-    </r>
-  </si>
-  <si>
-    <t>混</t>
-  </si>
-  <si>
-    <t>hùn</t>
-  </si>
-  <si>
-    <t>Trộn</t>
-  </si>
-  <si>
-    <r>
-      <t>请把糖和奶油</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>混</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">在一起。(Qǐng bǎ táng hé nǎiyóu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hùn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> zài yīqǐ.) – Vui lòng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trộn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> đường và kem lại với nhau.</t>
-    </r>
-  </si>
-  <si>
-    <t>便</t>
-  </si>
-  <si>
-    <t>biàn</t>
-  </si>
-  <si>
-    <t>Tiện</t>
-  </si>
-  <si>
-    <r>
-      <t>网上购物很</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>便</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">利。(Wǎngshàng gòuwù hěn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>biàn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">lì.) – Mua sắm online rất </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tiện</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lợi.</t>
-    </r>
-  </si>
-  <si>
-    <t>狗</t>
-  </si>
-  <si>
-    <t>gǒu</t>
-  </si>
-  <si>
-    <t>Chó</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我家有一只</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>狗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">。(Wǒ jiā yǒu yī zhī </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gǒu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.) – Nhà tôi có một con </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chó</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>脑</t>
-  </si>
-  <si>
-    <t>nǎo</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <r>
-      <t>长时间工作会让</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>脑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">子疲劳。(Cháng shíjiān gōngzuò huì ràng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nǎo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">zi píláo.) – Làm việc trong thời gian dài sẽ khiến </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mệt mỏi.</t>
-    </r>
-  </si>
-  <si>
-    <t>业</t>
-  </si>
-  <si>
-    <t>yè</t>
-  </si>
-  <si>
-    <t>Nghề nghiệp</t>
-  </si>
-  <si>
-    <r>
-      <t>教师是一种</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">。(Jiàoshī shì yī zhǒng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yè</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.) – Giáo viên là một </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nghề nghiệp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>歌</t>
-  </si>
-  <si>
-    <t>gē</t>
-  </si>
-  <si>
-    <t>Bài hát</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这首</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>歌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">很好听。(Zhè shǒu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gē</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hěn hǎotīng.) – Bài </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hát</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> này rất hay.</t>
-    </r>
-  </si>
-  <si>
-    <t>精</t>
-  </si>
-  <si>
-    <t>jīng</t>
-  </si>
-  <si>
-    <t>Tinh thần</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他很有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>精</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">神。(Tā hěn yǒu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jīng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">shén.) – Anh ấy tràn đầy </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tinh thần</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>包</t>
-  </si>
-  <si>
-    <t>bāo</t>
-  </si>
-  <si>
-    <t>Túi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>包</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">很重。(Wǒ de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bāo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hěn zhòng.) – Cái </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>túi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> của tôi rất nặng.</t>
-    </r>
-  </si>
-  <si>
-    <t>转</t>
-  </si>
-  <si>
-    <t>zhuǎn</t>
-  </si>
-  <si>
-    <t>Chuyển</t>
-  </si>
-  <si>
-    <r>
-      <t>请</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">到下一页。(Qǐng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zhuǎn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dào xià yī yè.) – Vui lòng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chuyển</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sang trang tiếp theo.</t>
-    </r>
-  </si>
-  <si>
-    <t>却</t>
-  </si>
-  <si>
-    <t>què</t>
-  </si>
-  <si>
-    <t>Nhưng mà</t>
-  </si>
-  <si>
-    <r>
-      <t>他想去，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>却</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">没时间。(Tā xiǎng qù, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>què</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> méi shíjiān.) – Anh ấy muốn đi, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nhưng mà</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> không có thời gian.</t>
-    </r>
-  </si>
-  <si>
-    <t>参</t>
-  </si>
-  <si>
-    <t>cān</t>
-  </si>
-  <si>
-    <t>Tham gia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>你要</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>参</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">加比赛吗？(Nǐ yào </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cān</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">jiā bǐsài ma?) – Bạn có muốn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tham gia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> cuộc thi không?</t>
-    </r>
-  </si>
-  <si>
-    <t>院</t>
-  </si>
-  <si>
-    <t>yuàn</t>
-  </si>
-  <si>
-    <t>Viện</t>
-  </si>
-  <si>
-    <r>
-      <t>我在医</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>工作。(Wǒ zài yī</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yuàn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> gōngzuò.) – Tôi làm việc trong bệnh</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> viện</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>务</t>
   </si>
   <si>
@@ -3944,6 +3972,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他负责这项</t>
     </r>
     <r>
@@ -4105,6 +4140,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>选手走上</t>
     </r>
     <r>
@@ -5125,7 +5167,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H44" sqref="G47 H44"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -5390,7 +5432,7 @@
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5410,7 +5452,7 @@
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>60</v>
       </c>
     </row>

--- a/data/f10.xlsx
+++ b/data/f10.xlsx
@@ -990,6 +990,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个城市有很多传统</t>
     </r>
     <r>
@@ -1067,6 +1074,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请你</t>
     </r>
     <r>
@@ -1669,6 +1683,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你怕</t>
     </r>
     <r>
@@ -3888,13 +3909,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>我在医</t>
     </r>
     <r>
@@ -3972,13 +3986,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>他负责这项</t>
     </r>
     <r>
@@ -4052,18 +4059,11 @@
     <t>jī</t>
   </si>
   <si>
-    <t>Nền tảng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这个项目很有</t>
+    <t>Cơ sở</t>
+  </si>
+  <si>
+    <r>
+      <t>他在中国文化方面有很好的</t>
     </r>
     <r>
       <rPr>
@@ -4084,7 +4084,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">础。(Zhège xiàngmù hěn yǒu </t>
+      <t xml:space="preserve">础。(Tā zài Zhōngguó wénhuà fāngmiàn yǒu hěn hǎo de </t>
     </r>
     <r>
       <rPr>
@@ -4105,28 +4105,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">chǔ.) – Dự án này có </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nền tảng</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> rất tốt.</t>
+      <t xml:space="preserve">chǔ.) – Anh ấy có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cơ sở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rất tốt về văn hóa Trung Quốc.</t>
     </r>
   </si>
   <si>
@@ -5167,7 +5167,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -6156,7 +6156,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" ht="28.8" spans="1:6">
+    <row r="50" ht="43.2" spans="1:6">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>204</v>
       </c>
     </row>
